--- a/data/trans_dic/P2A_senso_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.01347094214538841</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03335977340549738</v>
+        <v>0.03335977340549739</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02131788262597495</v>
+        <v>0.02168253493839109</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01064615429558622</v>
+        <v>0.01008865558778236</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007398051248336283</v>
+        <v>0.007469208186708739</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01939918741617908</v>
+        <v>0.02143522857280293</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02033321137664605</v>
+        <v>0.02042544620174579</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01733938340705695</v>
+        <v>0.01736045249291668</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.007669126635557235</v>
+        <v>0.008237444883692697</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02324228071934208</v>
+        <v>0.02125457590587558</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02446865140729277</v>
+        <v>0.02373653350820651</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01596539331938148</v>
+        <v>0.01549185002894437</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008980413144548642</v>
+        <v>0.009041108842225915</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02440256249640191</v>
+        <v>0.02459075660954512</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0552326417130569</v>
+        <v>0.0544037603414318</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02726526126770263</v>
+        <v>0.02643420011430869</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02350983018246331</v>
+        <v>0.0233631235514593</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05318187169373945</v>
+        <v>0.05506772670231912</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04481302072984927</v>
+        <v>0.04484793524547824</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03627681617396872</v>
+        <v>0.03662292430080151</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02193855957730862</v>
+        <v>0.02143418822313603</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04549663805159631</v>
+        <v>0.04481216720951957</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04345588273372844</v>
+        <v>0.04224748645459638</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0287278879494625</v>
+        <v>0.02839257760622181</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01978110861955886</v>
+        <v>0.01958100355329742</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04466945876983604</v>
+        <v>0.04420161621481857</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.008872892084535835</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03228866376077939</v>
+        <v>0.03228866376077938</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005932981927357479</v>
+        <v>0.006101098240643961</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01417318291633342</v>
+        <v>0.01634988500108663</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004463016625863829</v>
+        <v>0.004394491009515246</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0154079553882305</v>
+        <v>0.01591396131211142</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005849889784567099</v>
+        <v>0.005908542571629455</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01172612020289132</v>
+        <v>0.01188255386709448</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003742836342657381</v>
+        <v>0.003828108349932129</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03106955432560488</v>
+        <v>0.03172451728117</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.007109153000211606</v>
+        <v>0.007042307877294585</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01582878976707427</v>
+        <v>0.0153232374391285</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005359217678499771</v>
+        <v>0.004979186541972446</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0259472557456291</v>
+        <v>0.02658405203089167</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01931520027323679</v>
+        <v>0.01970181813524137</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03655121565762156</v>
+        <v>0.03734342556648227</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0192145849846357</v>
+        <v>0.01820498130961298</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03434968547073086</v>
+        <v>0.03375477413414255</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01854033022393505</v>
+        <v>0.01986272358172858</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02921213791015987</v>
+        <v>0.02999080828905824</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01546398374231847</v>
+        <v>0.01545230733597952</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05025864359098506</v>
+        <v>0.0504457645445785</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01608128713278649</v>
+        <v>0.0161086103585888</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02994068372791523</v>
+        <v>0.02886616640427377</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01408647398830994</v>
+        <v>0.01386048465467588</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0398627526770377</v>
+        <v>0.03958250331595585</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.006889816025986495</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02507180599112256</v>
+        <v>0.02507180599112257</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006693891250230062</v>
+        <v>0.006682332926683424</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007602976161994453</v>
+        <v>0.007555730694975418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002648051943352428</v>
+        <v>0.002918966845016094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0146228600191506</v>
+        <v>0.01446768591547434</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003698415354001582</v>
+        <v>0.003828745089111482</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01274524113666719</v>
+        <v>0.01336962147459994</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002229897796282933</v>
+        <v>0.002233213327759692</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01949934259636261</v>
+        <v>0.01933390566286512</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006236493960542471</v>
+        <v>0.006541918520416342</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01316529600432657</v>
+        <v>0.01243923073094276</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.00344072965797865</v>
+        <v>0.00337990219975949</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01838700902585392</v>
+        <v>0.01934240207397704</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02023512160227534</v>
+        <v>0.01953370957248235</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02854583994350864</v>
+        <v>0.02783758669642617</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01805571794142987</v>
+        <v>0.01855364444381394</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03579701243068364</v>
+        <v>0.03551966099185502</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0157079383758812</v>
+        <v>0.01596018741513214</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03450250355066745</v>
+        <v>0.03303392398557116</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01352063971881894</v>
+        <v>0.01319322736026146</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0394632536995588</v>
+        <v>0.04224786464182546</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01489515625946773</v>
+        <v>0.01533751981093675</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0269157807441858</v>
+        <v>0.02714300876992272</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01360840675495231</v>
+        <v>0.01282989855704253</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03310753468827594</v>
+        <v>0.03385322631714974</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01110825856388498</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02507950155111157</v>
+        <v>0.02507950155111156</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002047437348733041</v>
+        <v>0.002099133597203828</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001646067776561209</v>
+        <v>0.001658276987450804</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002109119742791222</v>
+        <v>0.002088474495868658</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0131741068074941</v>
+        <v>0.01362655569323074</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005470440143348652</v>
+        <v>0.003493306472242231</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.006410851802567237</v>
+        <v>0.006412445305137007</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.006326978481932943</v>
+        <v>0.006396170405318356</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01988765871610416</v>
+        <v>0.01921642795154278</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.004493211022010917</v>
+        <v>0.004886283587003974</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.004970007504227089</v>
+        <v>0.00493465907847871</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.004755809369032511</v>
+        <v>0.005516813548347474</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0192407313516794</v>
+        <v>0.01920096510479126</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02309606943380064</v>
+        <v>0.02204170776970513</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01544247184243501</v>
+        <v>0.01594468207867886</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01882666690436968</v>
+        <v>0.01865980213983456</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03655476165326732</v>
+        <v>0.03642031460491645</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03067296308562012</v>
+        <v>0.03485553337854102</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03370410884955272</v>
+        <v>0.03565688735608443</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03497810558637225</v>
+        <v>0.03527081889269567</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03712031884406986</v>
+        <v>0.03653341216265848</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0210891651660205</v>
+        <v>0.02033671552460631</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02060099086587484</v>
+        <v>0.02053162491719189</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01964163667395612</v>
+        <v>0.01997680126018801</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03331501897842095</v>
+        <v>0.03337806886459201</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.0106957606913724</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03212511174252704</v>
+        <v>0.03212511174252705</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.01575001344935872</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01176478587838186</v>
+        <v>0.01142416752916869</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0128322372157872</v>
+        <v>0.0126151948695225</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007007746495260233</v>
+        <v>0.00675107205781323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01935533290883358</v>
+        <v>0.01975736319826038</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01201270550641106</v>
+        <v>0.01234557772910346</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01722130458595971</v>
+        <v>0.01719036718383581</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.007654749398595491</v>
+        <v>0.00770541568994782</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02723784638032006</v>
+        <v>0.02773774780054446</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0127495602169537</v>
+        <v>0.0128531198771057</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01616495271606551</v>
+        <v>0.01603391061860203</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.00799305734695945</v>
+        <v>0.007992494470321077</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02513386487291694</v>
+        <v>0.0249047724284593</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0206999254542419</v>
+        <v>0.02046002022656595</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0227982998918834</v>
+        <v>0.02184229381372768</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01468991683188813</v>
+        <v>0.0145527449150328</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03022777483931656</v>
+        <v>0.03079195666256265</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0206518774892903</v>
+        <v>0.02093075837824259</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02715661671847725</v>
+        <v>0.02721204856293145</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0156574883511195</v>
+        <v>0.01464458002787107</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03715706383961179</v>
+        <v>0.03734063692145551</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01877496797431365</v>
+        <v>0.01900550902842857</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02343162990581672</v>
+        <v>0.02275751504224797</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01319772246007025</v>
+        <v>0.01351035078694613</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03228005874950346</v>
+        <v>0.03221885204230279</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12453</v>
+        <v>12666</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11114</v>
+        <v>10532</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8345</v>
+        <v>8425</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9675</v>
+        <v>10691</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>18754</v>
+        <v>18839</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>19419</v>
+        <v>19442</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9660</v>
+        <v>10376</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14493</v>
+        <v>13254</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>36861</v>
+        <v>35758</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>34547</v>
+        <v>33522</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>21441</v>
+        <v>21586</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>27387</v>
+        <v>27599</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32264</v>
+        <v>31779</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28463</v>
+        <v>27596</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26519</v>
+        <v>26354</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26524</v>
+        <v>27464</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>41333</v>
+        <v>41365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>40627</v>
+        <v>41015</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>27633</v>
+        <v>26998</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>28371</v>
+        <v>27944</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>65465</v>
+        <v>63645</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>62163</v>
+        <v>61438</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>47229</v>
+        <v>46751</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>50133</v>
+        <v>49608</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6395</v>
+        <v>6576</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13848</v>
+        <v>15975</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4056</v>
+        <v>3994</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14794</v>
+        <v>15280</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6186</v>
+        <v>6249</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12831</v>
+        <v>13003</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3767</v>
+        <v>3853</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>34669</v>
+        <v>35400</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>15181</v>
+        <v>15038</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>32787</v>
+        <v>31740</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10265</v>
+        <v>9537</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>53866</v>
+        <v>55188</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20820</v>
+        <v>21236</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>35713</v>
+        <v>36487</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17463</v>
+        <v>16545</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>32980</v>
+        <v>32409</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19607</v>
+        <v>21006</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>31966</v>
+        <v>32818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15564</v>
+        <v>15552</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>56081</v>
+        <v>56290</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>34340</v>
+        <v>34399</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>62017</v>
+        <v>59792</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>26980</v>
+        <v>26547</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>82755</v>
+        <v>82173</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7508</v>
+        <v>7495</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6730</v>
+        <v>6688</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2181</v>
+        <v>2405</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15303</v>
+        <v>15140</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3676</v>
+        <v>3806</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11162</v>
+        <v>11709</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20428</v>
+        <v>20255</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13194</v>
+        <v>13840</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>23183</v>
+        <v>21904</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5487</v>
+        <v>5390</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>38505</v>
+        <v>40505</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22696</v>
+        <v>21909</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25266</v>
+        <v>24639</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14874</v>
+        <v>15284</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>37461</v>
+        <v>37171</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15613</v>
+        <v>15863</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>30217</v>
+        <v>28931</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10425</v>
+        <v>10173</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>41343</v>
+        <v>44261</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>31511</v>
+        <v>32447</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>47396</v>
+        <v>47796</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21703</v>
+        <v>20461</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>69331</v>
+        <v>70893</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>916</v>
+        <v>939</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12857</v>
+        <v>13299</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1866</v>
+        <v>1192</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3098</v>
+        <v>3132</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>18105</v>
+        <v>17494</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3542</v>
+        <v>3852</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4750</v>
+        <v>4716</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4739</v>
+        <v>5497</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>36293</v>
+        <v>36218</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10329</v>
+        <v>9857</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7768</v>
+        <v>8021</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9539</v>
+        <v>9455</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35675</v>
+        <v>35544</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10464</v>
+        <v>11891</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>15259</v>
+        <v>16143</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17129</v>
+        <v>17272</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>33792</v>
+        <v>33258</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>16626</v>
+        <v>16033</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>19690</v>
+        <v>19623</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>19571</v>
+        <v>19905</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>62841</v>
+        <v>62960</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>38010</v>
+        <v>36910</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>43747</v>
+        <v>43007</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>23597</v>
+        <v>22733</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>67381</v>
+        <v>68781</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>39822</v>
+        <v>40925</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>61010</v>
+        <v>60901</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>26997</v>
+        <v>27175</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>100710</v>
+        <v>102558</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>83456</v>
+        <v>84134</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>112377</v>
+        <v>111466</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>55105</v>
+        <v>55101</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>180429</v>
+        <v>178784</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>66878</v>
+        <v>66103</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>77723</v>
+        <v>74464</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>49465</v>
+        <v>49003</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>105231</v>
+        <v>107196</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>68460</v>
+        <v>69385</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>96208</v>
+        <v>96405</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>55221</v>
+        <v>51648</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>137385</v>
+        <v>138064</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>122897</v>
+        <v>124406</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>162894</v>
+        <v>158207</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>90986</v>
+        <v>93141</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>231729</v>
+        <v>231290</v>
       </c>
     </row>
     <row r="24">
